--- a/tietokanta/feats/feats_class/feats_class.xlsx
+++ b/tietokanta/feats/feats_class/feats_class.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\feats_class\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\feats\feats_class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DA5D1F-D48E-4147-9C3F-5258FAF26049}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BE511D-BEF8-40C9-BE4C-AF45C40D5868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1920" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="1710" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="688">
   <si>
     <t>Alchemist</t>
   </si>
@@ -523,12 +523,6 @@
   </si>
   <si>
     <t>Symphony of the Muse</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>o</t>
   </si>
   <si>
     <t>Paladin</t>
@@ -2412,10 +2406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E638"/>
+  <dimension ref="A14:E638"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2423,78 +2417,6 @@
     <col min="1" max="5" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
@@ -4116,7 +4038,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B152" t="s">
         <v>4</v>
@@ -4125,12 +4047,12 @@
         <v>16</v>
       </c>
       <c r="D152" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B153" t="s">
         <v>4</v>
@@ -4139,12 +4061,12 @@
         <v>16</v>
       </c>
       <c r="D153" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B154" t="s">
         <v>4</v>
@@ -4153,12 +4075,12 @@
         <v>16</v>
       </c>
       <c r="D154" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B156" t="s">
         <v>4</v>
@@ -4169,7 +4091,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B157" t="s">
         <v>4</v>
@@ -4178,12 +4100,12 @@
         <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B158" t="s">
         <v>4</v>
@@ -4192,12 +4114,12 @@
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B159" t="s">
         <v>4</v>
@@ -4206,12 +4128,12 @@
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B160" t="s">
         <v>4</v>
@@ -4222,7 +4144,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B161" t="s">
         <v>4</v>
@@ -4231,12 +4153,12 @@
         <v>2</v>
       </c>
       <c r="D161" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B162" t="s">
         <v>4</v>
@@ -4245,12 +4167,12 @@
         <v>2</v>
       </c>
       <c r="D162" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B163" t="s">
         <v>4</v>
@@ -4259,12 +4181,12 @@
         <v>2</v>
       </c>
       <c r="D163" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B164" t="s">
         <v>4</v>
@@ -4273,26 +4195,26 @@
         <v>2</v>
       </c>
       <c r="D164" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>181</v>
+      </c>
+      <c r="B165" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <v>4</v>
+      </c>
+      <c r="D165" t="s">
         <v>183</v>
-      </c>
-      <c r="B165" t="s">
-        <v>4</v>
-      </c>
-      <c r="C165">
-        <v>4</v>
-      </c>
-      <c r="D165" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B166" t="s">
         <v>4</v>
@@ -4301,12 +4223,12 @@
         <v>4</v>
       </c>
       <c r="D166" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B167" t="s">
         <v>4</v>
@@ -4315,7 +4237,7 @@
         <v>4</v>
       </c>
       <c r="D167" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4331,7 +4253,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B169" t="s">
         <v>4</v>
@@ -4340,12 +4262,12 @@
         <v>6</v>
       </c>
       <c r="D169" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B170" t="s">
         <v>4</v>
@@ -4354,12 +4276,12 @@
         <v>6</v>
       </c>
       <c r="D170" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B171" t="s">
         <v>4</v>
@@ -4368,12 +4290,12 @@
         <v>6</v>
       </c>
       <c r="D171" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B172" t="s">
         <v>4</v>
@@ -4382,12 +4304,12 @@
         <v>6</v>
       </c>
       <c r="D172" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B173" t="s">
         <v>4</v>
@@ -4396,12 +4318,12 @@
         <v>8</v>
       </c>
       <c r="D173" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B174" t="s">
         <v>4</v>
@@ -4410,12 +4332,12 @@
         <v>8</v>
       </c>
       <c r="D174" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B175" t="s">
         <v>4</v>
@@ -4424,12 +4346,12 @@
         <v>8</v>
       </c>
       <c r="D175" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B176" t="s">
         <v>4</v>
@@ -4440,7 +4362,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B177" t="s">
         <v>4</v>
@@ -4449,12 +4371,12 @@
         <v>8</v>
       </c>
       <c r="D177" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B178" t="s">
         <v>4</v>
@@ -4463,12 +4385,12 @@
         <v>8</v>
       </c>
       <c r="D178" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B179" t="s">
         <v>4</v>
@@ -4477,12 +4399,12 @@
         <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B180" t="s">
         <v>4</v>
@@ -4491,12 +4413,12 @@
         <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B181" t="s">
         <v>4</v>
@@ -4505,12 +4427,12 @@
         <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B182" t="s">
         <v>4</v>
@@ -4519,12 +4441,12 @@
         <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B183" t="s">
         <v>4</v>
@@ -4533,12 +4455,12 @@
         <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B184" t="s">
         <v>4</v>
@@ -4547,12 +4469,12 @@
         <v>12</v>
       </c>
       <c r="D184" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B185" t="s">
         <v>4</v>
@@ -4561,12 +4483,12 @@
         <v>12</v>
       </c>
       <c r="D185" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B186" t="s">
         <v>4</v>
@@ -4575,12 +4497,12 @@
         <v>12</v>
       </c>
       <c r="D186" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B187" t="s">
         <v>4</v>
@@ -4589,12 +4511,12 @@
         <v>12</v>
       </c>
       <c r="D187" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B188" t="s">
         <v>4</v>
@@ -4605,7 +4527,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B189" t="s">
         <v>4</v>
@@ -4614,12 +4536,12 @@
         <v>12</v>
       </c>
       <c r="D189" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B190" t="s">
         <v>4</v>
@@ -4628,12 +4550,12 @@
         <v>12</v>
       </c>
       <c r="D190" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B191" t="s">
         <v>4</v>
@@ -4642,12 +4564,12 @@
         <v>14</v>
       </c>
       <c r="D191" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B192" t="s">
         <v>4</v>
@@ -4656,12 +4578,12 @@
         <v>14</v>
       </c>
       <c r="D192" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B193" t="s">
         <v>4</v>
@@ -4670,12 +4592,12 @@
         <v>14</v>
       </c>
       <c r="D193" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B194" t="s">
         <v>4</v>
@@ -4684,12 +4606,12 @@
         <v>14</v>
       </c>
       <c r="D194" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B195" t="s">
         <v>4</v>
@@ -4700,7 +4622,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B196" t="s">
         <v>4</v>
@@ -4709,12 +4631,12 @@
         <v>14</v>
       </c>
       <c r="D196" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B197" t="s">
         <v>4</v>
@@ -4723,12 +4645,12 @@
         <v>14</v>
       </c>
       <c r="D197" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B198" t="s">
         <v>4</v>
@@ -4737,12 +4659,12 @@
         <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B199" t="s">
         <v>4</v>
@@ -4751,12 +4673,12 @@
         <v>16</v>
       </c>
       <c r="D199" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B200" t="s">
         <v>4</v>
@@ -4765,12 +4687,12 @@
         <v>16</v>
       </c>
       <c r="D200" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B201" t="s">
         <v>4</v>
@@ -4779,12 +4701,12 @@
         <v>18</v>
       </c>
       <c r="D201" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B202" t="s">
         <v>4</v>
@@ -4793,12 +4715,12 @@
         <v>18</v>
       </c>
       <c r="D202" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B203" t="s">
         <v>4</v>
@@ -4807,12 +4729,12 @@
         <v>20</v>
       </c>
       <c r="D203" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B204" t="s">
         <v>4</v>
@@ -4821,12 +4743,12 @@
         <v>20</v>
       </c>
       <c r="D204" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B205" t="s">
         <v>4</v>
@@ -4835,12 +4757,12 @@
         <v>20</v>
       </c>
       <c r="D205" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
@@ -4851,7 +4773,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
@@ -4862,7 +4784,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
@@ -4873,7 +4795,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
@@ -4884,7 +4806,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B211" t="s">
         <v>5</v>
@@ -4893,12 +4815,12 @@
         <v>1</v>
       </c>
       <c r="D211" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
@@ -4907,12 +4829,12 @@
         <v>1</v>
       </c>
       <c r="D212" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B213" t="s">
         <v>5</v>
@@ -4921,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="D213" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4948,7 +4870,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
@@ -4959,7 +4881,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
@@ -4970,7 +4892,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
@@ -4981,7 +4903,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B219" t="s">
         <v>5</v>
@@ -4992,7 +4914,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
@@ -5001,12 +4923,12 @@
         <v>2</v>
       </c>
       <c r="D220" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
@@ -5017,7 +4939,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
@@ -5026,12 +4948,12 @@
         <v>4</v>
       </c>
       <c r="D222" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
@@ -5042,7 +4964,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
@@ -5051,12 +4973,12 @@
         <v>4</v>
       </c>
       <c r="D224" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
@@ -5065,12 +4987,12 @@
         <v>4</v>
       </c>
       <c r="D225" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
@@ -5079,12 +5001,12 @@
         <v>6</v>
       </c>
       <c r="D226" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
@@ -5095,7 +5017,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
@@ -5117,7 +5039,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
@@ -5126,12 +5048,12 @@
         <v>8</v>
       </c>
       <c r="D230" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
@@ -5140,12 +5062,12 @@
         <v>8</v>
       </c>
       <c r="D231" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
@@ -5154,12 +5076,12 @@
         <v>8</v>
       </c>
       <c r="D232" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
@@ -5170,7 +5092,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
@@ -5179,12 +5101,12 @@
         <v>8</v>
       </c>
       <c r="D234" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
@@ -5193,12 +5115,12 @@
         <v>10</v>
       </c>
       <c r="D235" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B236" t="s">
         <v>5</v>
@@ -5207,12 +5129,12 @@
         <v>10</v>
       </c>
       <c r="D236" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
@@ -5221,12 +5143,12 @@
         <v>10</v>
       </c>
       <c r="D237" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
@@ -5237,7 +5159,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
@@ -5246,12 +5168,12 @@
         <v>12</v>
       </c>
       <c r="D239" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
@@ -5262,7 +5184,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B241" t="s">
         <v>5</v>
@@ -5271,12 +5193,12 @@
         <v>12</v>
       </c>
       <c r="D241" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
@@ -5285,12 +5207,12 @@
         <v>12</v>
       </c>
       <c r="D242" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
@@ -5299,12 +5221,12 @@
         <v>14</v>
       </c>
       <c r="D243" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
@@ -5313,12 +5235,12 @@
         <v>14</v>
       </c>
       <c r="D244" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
@@ -5327,12 +5249,12 @@
         <v>14</v>
       </c>
       <c r="D245" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
@@ -5343,7 +5265,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
@@ -5352,12 +5274,12 @@
         <v>16</v>
       </c>
       <c r="D247" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
@@ -5366,12 +5288,12 @@
         <v>16</v>
       </c>
       <c r="D248" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
@@ -5382,7 +5304,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
@@ -5391,12 +5313,12 @@
         <v>18</v>
       </c>
       <c r="D250" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
@@ -5407,7 +5329,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B252" t="s">
         <v>5</v>
@@ -5416,12 +5338,12 @@
         <v>18</v>
       </c>
       <c r="D252" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
@@ -5432,7 +5354,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
@@ -5441,12 +5363,12 @@
         <v>20</v>
       </c>
       <c r="D254" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
@@ -5457,7 +5379,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B257" t="s">
         <v>6</v>
@@ -5468,7 +5390,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B258" t="s">
         <v>6</v>
@@ -5479,7 +5401,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B259" t="s">
         <v>6</v>
@@ -5490,7 +5412,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B260" t="s">
         <v>6</v>
@@ -5501,7 +5423,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B262" t="s">
         <v>6</v>
@@ -5510,12 +5432,12 @@
         <v>1</v>
       </c>
       <c r="D262" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B263" t="s">
         <v>6</v>
@@ -5524,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="D263" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5540,7 +5462,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B265" t="s">
         <v>6</v>
@@ -5549,12 +5471,12 @@
         <v>1</v>
       </c>
       <c r="D265" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B266" t="s">
         <v>6</v>
@@ -5565,7 +5487,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B267" t="s">
         <v>6</v>
@@ -5574,12 +5496,12 @@
         <v>1</v>
       </c>
       <c r="D267" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B268" t="s">
         <v>6</v>
@@ -5590,7 +5512,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B269" t="s">
         <v>6</v>
@@ -5599,12 +5521,12 @@
         <v>2</v>
       </c>
       <c r="D269" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B270" t="s">
         <v>6</v>
@@ -5626,7 +5548,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
@@ -5635,12 +5557,12 @@
         <v>2</v>
       </c>
       <c r="D272" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B273" t="s">
         <v>6</v>
@@ -5649,12 +5571,12 @@
         <v>4</v>
       </c>
       <c r="D273" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B274" t="s">
         <v>6</v>
@@ -5663,12 +5585,12 @@
         <v>4</v>
       </c>
       <c r="D274" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B275" t="s">
         <v>6</v>
@@ -5677,12 +5599,12 @@
         <v>4</v>
       </c>
       <c r="D275" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B276" t="s">
         <v>6</v>
@@ -5691,12 +5613,12 @@
         <v>4</v>
       </c>
       <c r="D276" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B277" t="s">
         <v>6</v>
@@ -5705,12 +5627,12 @@
         <v>6</v>
       </c>
       <c r="D277" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B278" t="s">
         <v>6</v>
@@ -5719,7 +5641,7 @@
         <v>6</v>
       </c>
       <c r="D278" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5735,7 +5657,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B280" t="s">
         <v>6</v>
@@ -5744,12 +5666,12 @@
         <v>6</v>
       </c>
       <c r="D280" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B281" t="s">
         <v>6</v>
@@ -5758,12 +5680,12 @@
         <v>8</v>
       </c>
       <c r="D281" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B282" t="s">
         <v>6</v>
@@ -5774,7 +5696,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B283" t="s">
         <v>6</v>
@@ -5783,12 +5705,12 @@
         <v>8</v>
       </c>
       <c r="D283" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B284" t="s">
         <v>6</v>
@@ -5797,12 +5719,12 @@
         <v>8</v>
       </c>
       <c r="D284" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B285" t="s">
         <v>6</v>
@@ -5811,12 +5733,12 @@
         <v>8</v>
       </c>
       <c r="D285" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B286" t="s">
         <v>6</v>
@@ -5825,12 +5747,12 @@
         <v>10</v>
       </c>
       <c r="D286" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B287" t="s">
         <v>6</v>
@@ -5841,7 +5763,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B288" t="s">
         <v>6</v>
@@ -5852,7 +5774,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B289" t="s">
         <v>6</v>
@@ -5861,12 +5783,12 @@
         <v>10</v>
       </c>
       <c r="D289" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B290" t="s">
         <v>6</v>
@@ -5875,12 +5797,12 @@
         <v>10</v>
       </c>
       <c r="D290" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B291" t="s">
         <v>6</v>
@@ -5889,12 +5811,12 @@
         <v>12</v>
       </c>
       <c r="D291" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B292" t="s">
         <v>6</v>
@@ -5903,12 +5825,12 @@
         <v>12</v>
       </c>
       <c r="D292" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B293" t="s">
         <v>6</v>
@@ -5919,7 +5841,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B294" t="s">
         <v>6</v>
@@ -5928,12 +5850,12 @@
         <v>12</v>
       </c>
       <c r="D294" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B295" t="s">
         <v>6</v>
@@ -5942,12 +5864,12 @@
         <v>14</v>
       </c>
       <c r="D295" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B296" t="s">
         <v>6</v>
@@ -5958,7 +5880,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B297" t="s">
         <v>6</v>
@@ -5967,7 +5889,7 @@
         <v>14</v>
       </c>
       <c r="D297" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5983,7 +5905,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B299" t="s">
         <v>6</v>
@@ -5992,12 +5914,12 @@
         <v>16</v>
       </c>
       <c r="D299" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B300" t="s">
         <v>6</v>
@@ -6006,12 +5928,12 @@
         <v>16</v>
       </c>
       <c r="D300" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B301" t="s">
         <v>6</v>
@@ -6020,12 +5942,12 @@
         <v>18</v>
       </c>
       <c r="D301" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B302" t="s">
         <v>6</v>
@@ -6034,12 +5956,12 @@
         <v>18</v>
       </c>
       <c r="D302" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B303" t="s">
         <v>6</v>
@@ -6048,12 +5970,12 @@
         <v>18</v>
       </c>
       <c r="D303" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B304" t="s">
         <v>6</v>
@@ -6062,12 +5984,12 @@
         <v>20</v>
       </c>
       <c r="D304" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B305" t="s">
         <v>6</v>
@@ -6078,7 +6000,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B306" t="s">
         <v>6</v>
@@ -6087,12 +6009,12 @@
         <v>20</v>
       </c>
       <c r="D306" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B308" t="s">
         <v>1</v>
@@ -6103,7 +6025,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B309" t="s">
         <v>1</v>
@@ -6114,7 +6036,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B310" t="s">
         <v>1</v>
@@ -6125,7 +6047,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B311" t="s">
         <v>1</v>
@@ -6136,7 +6058,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B312" t="s">
         <v>1</v>
@@ -6147,7 +6069,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B313" t="s">
         <v>1</v>
@@ -6169,7 +6091,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B315" t="s">
         <v>1</v>
@@ -6180,7 +6102,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B316" t="s">
         <v>1</v>
@@ -6191,7 +6113,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B317" t="s">
         <v>1</v>
@@ -6202,7 +6124,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B318" t="s">
         <v>1</v>
@@ -6213,7 +6135,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B319" t="s">
         <v>1</v>
@@ -6224,7 +6146,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B320" t="s">
         <v>1</v>
@@ -6235,7 +6157,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B321" t="s">
         <v>1</v>
@@ -6246,7 +6168,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B322" t="s">
         <v>1</v>
@@ -6257,7 +6179,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B323" t="s">
         <v>1</v>
@@ -6268,7 +6190,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B324" t="s">
         <v>1</v>
@@ -6279,7 +6201,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B325" t="s">
         <v>1</v>
@@ -6290,7 +6212,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B326" t="s">
         <v>1</v>
@@ -6301,7 +6223,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B327" t="s">
         <v>1</v>
@@ -6323,7 +6245,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B329" t="s">
         <v>1</v>
@@ -6334,7 +6256,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B330" t="s">
         <v>1</v>
@@ -6345,7 +6267,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B331" t="s">
         <v>1</v>
@@ -6356,21 +6278,21 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
+        <v>371</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>6</v>
+      </c>
+      <c r="D332" t="s">
         <v>373</v>
-      </c>
-      <c r="B332" t="s">
-        <v>1</v>
-      </c>
-      <c r="C332">
-        <v>6</v>
-      </c>
-      <c r="D332" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B333" t="s">
         <v>1</v>
@@ -6379,12 +6301,12 @@
         <v>6</v>
       </c>
       <c r="D333" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B334" t="s">
         <v>1</v>
@@ -6395,7 +6317,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B335" t="s">
         <v>1</v>
@@ -6406,7 +6328,7 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B336" t="s">
         <v>1</v>
@@ -6417,7 +6339,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B337" t="s">
         <v>1</v>
@@ -6428,7 +6350,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B338" t="s">
         <v>1</v>
@@ -6437,12 +6359,12 @@
         <v>6</v>
       </c>
       <c r="D338" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B339" t="s">
         <v>1</v>
@@ -6451,12 +6373,12 @@
         <v>6</v>
       </c>
       <c r="D339" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B340" t="s">
         <v>1</v>
@@ -6465,12 +6387,12 @@
         <v>8</v>
       </c>
       <c r="D340" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B341" t="s">
         <v>1</v>
@@ -6479,12 +6401,12 @@
         <v>8</v>
       </c>
       <c r="D341" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B342" t="s">
         <v>1</v>
@@ -6495,7 +6417,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B343" t="s">
         <v>1</v>
@@ -6506,7 +6428,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B344" t="s">
         <v>1</v>
@@ -6517,7 +6439,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B345" t="s">
         <v>1</v>
@@ -6528,7 +6450,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B346" t="s">
         <v>1</v>
@@ -6537,7 +6459,7 @@
         <v>8</v>
       </c>
       <c r="D346" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -6553,7 +6475,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B348" t="s">
         <v>1</v>
@@ -6564,7 +6486,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B349" t="s">
         <v>1</v>
@@ -6575,7 +6497,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B350" t="s">
         <v>1</v>
@@ -6586,7 +6508,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B351" t="s">
         <v>1</v>
@@ -6597,7 +6519,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B352" t="s">
         <v>1</v>
@@ -6606,12 +6528,12 @@
         <v>10</v>
       </c>
       <c r="D352" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B353" t="s">
         <v>1</v>
@@ -6622,7 +6544,7 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B354" t="s">
         <v>1</v>
@@ -6633,7 +6555,7 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B355" t="s">
         <v>1</v>
@@ -6642,12 +6564,12 @@
         <v>10</v>
       </c>
       <c r="D355" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B356" t="s">
         <v>1</v>
@@ -6658,7 +6580,7 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B357" t="s">
         <v>1</v>
@@ -6669,7 +6591,7 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B358" t="s">
         <v>1</v>
@@ -6680,7 +6602,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B359" t="s">
         <v>1</v>
@@ -6689,12 +6611,12 @@
         <v>12</v>
       </c>
       <c r="D359" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B360" t="s">
         <v>1</v>
@@ -6703,12 +6625,12 @@
         <v>12</v>
       </c>
       <c r="D360" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B361" t="s">
         <v>1</v>
@@ -6717,12 +6639,12 @@
         <v>12</v>
       </c>
       <c r="D361" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B362" t="s">
         <v>1</v>
@@ -6731,12 +6653,12 @@
         <v>12</v>
       </c>
       <c r="D362" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B363" t="s">
         <v>1</v>
@@ -6745,12 +6667,12 @@
         <v>12</v>
       </c>
       <c r="D363" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B364" t="s">
         <v>1</v>
@@ -6761,7 +6683,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B365" t="s">
         <v>1</v>
@@ -6772,7 +6694,7 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B366" t="s">
         <v>1</v>
@@ -6783,7 +6705,7 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B367" t="s">
         <v>1</v>
@@ -6794,7 +6716,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B368" t="s">
         <v>1</v>
@@ -6805,7 +6727,7 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B369" t="s">
         <v>1</v>
@@ -6814,12 +6736,12 @@
         <v>14</v>
       </c>
       <c r="D369" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B370" t="s">
         <v>1</v>
@@ -6830,7 +6752,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B371" t="s">
         <v>1</v>
@@ -6852,7 +6774,7 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B373" t="s">
         <v>1</v>
@@ -6861,12 +6783,12 @@
         <v>16</v>
       </c>
       <c r="D373" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B374" t="s">
         <v>1</v>
@@ -6875,12 +6797,12 @@
         <v>16</v>
       </c>
       <c r="D374" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B375" t="s">
         <v>1</v>
@@ -6889,12 +6811,12 @@
         <v>16</v>
       </c>
       <c r="D375" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B376" t="s">
         <v>1</v>
@@ -6903,12 +6825,12 @@
         <v>16</v>
       </c>
       <c r="D376" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B377" t="s">
         <v>1</v>
@@ -6919,7 +6841,7 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B378" t="s">
         <v>1</v>
@@ -6930,7 +6852,7 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B379" t="s">
         <v>1</v>
@@ -6941,7 +6863,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B380" t="s">
         <v>1</v>
@@ -6952,7 +6874,7 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B382" t="s">
         <v>7</v>
@@ -6963,7 +6885,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B383" t="s">
         <v>7</v>
@@ -6974,7 +6896,7 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B384" t="s">
         <v>7</v>
@@ -6985,7 +6907,7 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B385" t="s">
         <v>7</v>
@@ -6996,7 +6918,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B386" t="s">
         <v>7</v>
@@ -7007,7 +6929,7 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B387" t="s">
         <v>7</v>
@@ -7018,7 +6940,7 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B388" t="s">
         <v>7</v>
@@ -7029,7 +6951,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B389" t="s">
         <v>7</v>
@@ -7040,7 +6962,7 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B390" t="s">
         <v>7</v>
@@ -7051,7 +6973,7 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B391" t="s">
         <v>7</v>
@@ -7062,7 +6984,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B392" t="s">
         <v>7</v>
@@ -7073,7 +6995,7 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B393" t="s">
         <v>7</v>
@@ -7082,12 +7004,12 @@
         <v>2</v>
       </c>
       <c r="D393" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B394" t="s">
         <v>7</v>
@@ -7096,12 +7018,12 @@
         <v>2</v>
       </c>
       <c r="D394" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B395" t="s">
         <v>7</v>
@@ -7112,7 +7034,7 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B396" t="s">
         <v>7</v>
@@ -7126,7 +7048,7 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B397" t="s">
         <v>7</v>
@@ -7137,7 +7059,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B398" t="s">
         <v>7</v>
@@ -7148,7 +7070,7 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B399" t="s">
         <v>7</v>
@@ -7159,7 +7081,7 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B400" t="s">
         <v>7</v>
@@ -7168,12 +7090,12 @@
         <v>4</v>
       </c>
       <c r="D400" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B401" t="s">
         <v>7</v>
@@ -7182,12 +7104,12 @@
         <v>6</v>
       </c>
       <c r="D401" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B402" t="s">
         <v>7</v>
@@ -7196,12 +7118,12 @@
         <v>6</v>
       </c>
       <c r="D402" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B403" t="s">
         <v>7</v>
@@ -7210,12 +7132,12 @@
         <v>6</v>
       </c>
       <c r="D403" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B404" t="s">
         <v>7</v>
@@ -7224,12 +7146,12 @@
         <v>6</v>
       </c>
       <c r="D404" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B405" t="s">
         <v>7</v>
@@ -7238,12 +7160,12 @@
         <v>6</v>
       </c>
       <c r="D405" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B406" t="s">
         <v>7</v>
@@ -7252,12 +7174,12 @@
         <v>6</v>
       </c>
       <c r="D406" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B407" t="s">
         <v>7</v>
@@ -7268,7 +7190,7 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B408" t="s">
         <v>7</v>
@@ -7279,7 +7201,7 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B409" t="s">
         <v>7</v>
@@ -7288,12 +7210,12 @@
         <v>6</v>
       </c>
       <c r="D409" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B410" t="s">
         <v>7</v>
@@ -7302,12 +7224,12 @@
         <v>8</v>
       </c>
       <c r="D410" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B411" t="s">
         <v>7</v>
@@ -7318,7 +7240,7 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B412" t="s">
         <v>7</v>
@@ -7332,7 +7254,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B413" t="s">
         <v>7</v>
@@ -7343,7 +7265,7 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B414" t="s">
         <v>7</v>
@@ -7354,7 +7276,7 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B415" t="s">
         <v>7</v>
@@ -7363,12 +7285,12 @@
         <v>8</v>
       </c>
       <c r="D415" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B416" t="s">
         <v>7</v>
@@ -7379,7 +7301,7 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B417" t="s">
         <v>7</v>
@@ -7390,7 +7312,7 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B418" t="s">
         <v>7</v>
@@ -7399,12 +7321,12 @@
         <v>10</v>
       </c>
       <c r="D418" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B419" t="s">
         <v>7</v>
@@ -7415,7 +7337,7 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B420" t="s">
         <v>7</v>
@@ -7426,7 +7348,7 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B421" t="s">
         <v>7</v>
@@ -7437,7 +7359,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B422" t="s">
         <v>7</v>
@@ -7451,7 +7373,7 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B423" t="s">
         <v>7</v>
@@ -7460,12 +7382,12 @@
         <v>12</v>
       </c>
       <c r="D423" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B424" t="s">
         <v>7</v>
@@ -7476,7 +7398,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B425" t="s">
         <v>7</v>
@@ -7485,12 +7407,12 @@
         <v>14</v>
       </c>
       <c r="D425" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B426" t="s">
         <v>7</v>
@@ -7499,12 +7421,12 @@
         <v>14</v>
       </c>
       <c r="D426" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B427" t="s">
         <v>7</v>
@@ -7513,12 +7435,12 @@
         <v>14</v>
       </c>
       <c r="D427" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B428" t="s">
         <v>7</v>
@@ -7529,7 +7451,7 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B429" t="s">
         <v>7</v>
@@ -7540,7 +7462,7 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B430" t="s">
         <v>7</v>
@@ -7549,12 +7471,12 @@
         <v>14</v>
       </c>
       <c r="D430" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B431" t="s">
         <v>7</v>
@@ -7565,7 +7487,7 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B432" t="s">
         <v>7</v>
@@ -7574,12 +7496,12 @@
         <v>16</v>
       </c>
       <c r="D432" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B433" t="s">
         <v>7</v>
@@ -7588,12 +7510,12 @@
         <v>16</v>
       </c>
       <c r="D433" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B434" t="s">
         <v>7</v>
@@ -7604,7 +7526,7 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B435" t="s">
         <v>7</v>
@@ -7615,7 +7537,7 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B436" t="s">
         <v>7</v>
@@ -7624,12 +7546,12 @@
         <v>18</v>
       </c>
       <c r="D436" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B437" t="s">
         <v>7</v>
@@ -7638,12 +7560,12 @@
         <v>18</v>
       </c>
       <c r="D437" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B438" t="s">
         <v>7</v>
@@ -7654,7 +7576,7 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B439" t="s">
         <v>7</v>
@@ -7665,7 +7587,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B440" t="s">
         <v>7</v>
@@ -7674,12 +7596,12 @@
         <v>20</v>
       </c>
       <c r="D440" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B441" t="s">
         <v>7</v>
@@ -7690,7 +7612,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B443" t="s">
         <v>8</v>
@@ -7701,7 +7623,7 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B444" t="s">
         <v>8</v>
@@ -7712,7 +7634,7 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B445" t="s">
         <v>8</v>
@@ -7723,7 +7645,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B446" t="s">
         <v>8</v>
@@ -7734,7 +7656,7 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B447" t="s">
         <v>8</v>
@@ -7745,7 +7667,7 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B448" t="s">
         <v>8</v>
@@ -7756,7 +7678,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B449" t="s">
         <v>8</v>
@@ -7767,7 +7689,7 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B450" t="s">
         <v>8</v>
@@ -7778,7 +7700,7 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B451" t="s">
         <v>8</v>
@@ -7789,7 +7711,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B452" t="s">
         <v>8</v>
@@ -7800,7 +7722,7 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B453" t="s">
         <v>8</v>
@@ -7809,12 +7731,12 @@
         <v>2</v>
       </c>
       <c r="D453" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B454" t="s">
         <v>8</v>
@@ -7825,7 +7747,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B455" t="s">
         <v>8</v>
@@ -7836,7 +7758,7 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B456" t="s">
         <v>8</v>
@@ -7847,7 +7769,7 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B457" t="s">
         <v>8</v>
@@ -7858,7 +7780,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B458" t="s">
         <v>8</v>
@@ -7869,7 +7791,7 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B459" t="s">
         <v>8</v>
@@ -7880,7 +7802,7 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B460" t="s">
         <v>8</v>
@@ -7891,7 +7813,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B461" t="s">
         <v>8</v>
@@ -7900,12 +7822,12 @@
         <v>4</v>
       </c>
       <c r="D461" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B462" t="s">
         <v>8</v>
@@ -7916,7 +7838,7 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B463" t="s">
         <v>8</v>
@@ -7925,12 +7847,12 @@
         <v>6</v>
       </c>
       <c r="D463" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B464" t="s">
         <v>8</v>
@@ -7939,12 +7861,12 @@
         <v>6</v>
       </c>
       <c r="D464" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B465" t="s">
         <v>8</v>
@@ -7955,7 +7877,7 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B466" t="s">
         <v>8</v>
@@ -7966,7 +7888,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B467" t="s">
         <v>8</v>
@@ -7975,12 +7897,12 @@
         <v>6</v>
       </c>
       <c r="D467" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B468" t="s">
         <v>8</v>
@@ -7989,12 +7911,12 @@
         <v>8</v>
       </c>
       <c r="D468" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B469" t="s">
         <v>8</v>
@@ -8003,12 +7925,12 @@
         <v>8</v>
       </c>
       <c r="D469" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B470" t="s">
         <v>8</v>
@@ -8019,7 +7941,7 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B471" t="s">
         <v>8</v>
@@ -8028,12 +7950,12 @@
         <v>8</v>
       </c>
       <c r="D471" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B472" t="s">
         <v>8</v>
@@ -8042,12 +7964,12 @@
         <v>8</v>
       </c>
       <c r="D472" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B473" t="s">
         <v>8</v>
@@ -8058,7 +7980,7 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B474" t="s">
         <v>8</v>
@@ -8067,12 +7989,12 @@
         <v>10</v>
       </c>
       <c r="D474" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B475" t="s">
         <v>8</v>
@@ -8081,12 +8003,12 @@
         <v>10</v>
       </c>
       <c r="D475" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B476" t="s">
         <v>8</v>
@@ -8095,12 +8017,12 @@
         <v>10</v>
       </c>
       <c r="D476" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B477" t="s">
         <v>8</v>
@@ -8111,7 +8033,7 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B478" t="s">
         <v>8</v>
@@ -8122,7 +8044,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B479" t="s">
         <v>8</v>
@@ -8131,12 +8053,12 @@
         <v>10</v>
       </c>
       <c r="D479" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B480" t="s">
         <v>8</v>
@@ -8147,7 +8069,7 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B481" t="s">
         <v>8</v>
@@ -8158,7 +8080,7 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B482" t="s">
         <v>8</v>
@@ -8167,12 +8089,12 @@
         <v>12</v>
       </c>
       <c r="D482" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B483" t="s">
         <v>8</v>
@@ -8183,7 +8105,7 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B484" t="s">
         <v>8</v>
@@ -8192,12 +8114,12 @@
         <v>12</v>
       </c>
       <c r="D484" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B485" t="s">
         <v>8</v>
@@ -8208,7 +8130,7 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B486" t="s">
         <v>8</v>
@@ -8217,12 +8139,12 @@
         <v>14</v>
       </c>
       <c r="D486" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B487" t="s">
         <v>8</v>
@@ -8231,12 +8153,12 @@
         <v>14</v>
       </c>
       <c r="D487" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B488" t="s">
         <v>8</v>
@@ -8245,12 +8167,12 @@
         <v>14</v>
       </c>
       <c r="D488" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B489" t="s">
         <v>8</v>
@@ -8261,7 +8183,7 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B490" t="s">
         <v>8</v>
@@ -8270,12 +8192,12 @@
         <v>16</v>
       </c>
       <c r="D490" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B491" t="s">
         <v>8</v>
@@ -8286,7 +8208,7 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B492" t="s">
         <v>8</v>
@@ -8295,12 +8217,12 @@
         <v>16</v>
       </c>
       <c r="D492" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B493" t="s">
         <v>8</v>
@@ -8309,12 +8231,12 @@
         <v>16</v>
       </c>
       <c r="D493" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B494" t="s">
         <v>8</v>
@@ -8323,12 +8245,12 @@
         <v>16</v>
       </c>
       <c r="D494" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B495" t="s">
         <v>8</v>
@@ -8339,7 +8261,7 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B496" t="s">
         <v>8</v>
@@ -8350,7 +8272,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B497" t="s">
         <v>8</v>
@@ -8359,12 +8281,12 @@
         <v>18</v>
       </c>
       <c r="D497" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B498" t="s">
         <v>8</v>
@@ -8373,12 +8295,12 @@
         <v>18</v>
       </c>
       <c r="D498" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B499" t="s">
         <v>8</v>
@@ -8389,7 +8311,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B500" t="s">
         <v>8</v>
@@ -8398,12 +8320,12 @@
         <v>18</v>
       </c>
       <c r="D500" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B501" t="s">
         <v>8</v>
@@ -8412,12 +8334,12 @@
         <v>20</v>
       </c>
       <c r="D501" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B502" t="s">
         <v>8</v>
@@ -8426,12 +8348,12 @@
         <v>20</v>
       </c>
       <c r="D502" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B503" t="s">
         <v>8</v>
@@ -8440,12 +8362,12 @@
         <v>20</v>
       </c>
       <c r="D503" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B504" t="s">
         <v>8</v>
@@ -8454,12 +8376,12 @@
         <v>20</v>
       </c>
       <c r="D504" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B506" t="s">
         <v>9</v>
@@ -8470,7 +8392,7 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B507" t="s">
         <v>9</v>
@@ -8481,7 +8403,7 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B508" t="s">
         <v>9</v>
@@ -8492,7 +8414,7 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B509" t="s">
         <v>9</v>
@@ -8503,7 +8425,7 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B510" t="s">
         <v>9</v>
@@ -8514,7 +8436,7 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B511" t="s">
         <v>9</v>
@@ -8525,7 +8447,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B512" t="s">
         <v>9</v>
@@ -8534,12 +8456,12 @@
         <v>1</v>
       </c>
       <c r="D512" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B513" t="s">
         <v>9</v>
@@ -8548,12 +8470,12 @@
         <v>2</v>
       </c>
       <c r="D513" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B514" t="s">
         <v>9</v>
@@ -8562,12 +8484,12 @@
         <v>2</v>
       </c>
       <c r="D514" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B515" t="s">
         <v>9</v>
@@ -8578,7 +8500,7 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B516" t="s">
         <v>9</v>
@@ -8589,7 +8511,7 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B517" t="s">
         <v>9</v>
@@ -8600,7 +8522,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B518" t="s">
         <v>9</v>
@@ -8609,12 +8531,12 @@
         <v>2</v>
       </c>
       <c r="D518" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B519" t="s">
         <v>9</v>
@@ -8625,7 +8547,7 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B520" t="s">
         <v>9</v>
@@ -8636,7 +8558,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B521" t="s">
         <v>9</v>
@@ -8647,7 +8569,7 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B522" t="s">
         <v>9</v>
@@ -8658,7 +8580,7 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B523" t="s">
         <v>9</v>
@@ -8669,7 +8591,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B524" t="s">
         <v>9</v>
@@ -8680,7 +8602,7 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B525" t="s">
         <v>9</v>
@@ -8691,7 +8613,7 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B526" t="s">
         <v>9</v>
@@ -8702,7 +8624,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B527" t="s">
         <v>9</v>
@@ -8713,7 +8635,7 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B528" t="s">
         <v>9</v>
@@ -8724,7 +8646,7 @@
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B529" t="s">
         <v>9</v>
@@ -8733,12 +8655,12 @@
         <v>8</v>
       </c>
       <c r="D529" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B530" t="s">
         <v>9</v>
@@ -8749,7 +8671,7 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B531" t="s">
         <v>9</v>
@@ -8758,12 +8680,12 @@
         <v>8</v>
       </c>
       <c r="D531" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B532" t="s">
         <v>9</v>
@@ -8772,12 +8694,12 @@
         <v>8</v>
       </c>
       <c r="D532" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B533" t="s">
         <v>9</v>
@@ -8788,7 +8710,7 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B534" t="s">
         <v>9</v>
@@ -8799,7 +8721,7 @@
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B535" t="s">
         <v>9</v>
@@ -8808,12 +8730,12 @@
         <v>8</v>
       </c>
       <c r="D535" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B536" t="s">
         <v>9</v>
@@ -8822,12 +8744,12 @@
         <v>10</v>
       </c>
       <c r="D536" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B537" t="s">
         <v>9</v>
@@ -8836,12 +8758,12 @@
         <v>10</v>
       </c>
       <c r="D537" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B538" t="s">
         <v>9</v>
@@ -8850,12 +8772,12 @@
         <v>10</v>
       </c>
       <c r="D538" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B539" t="s">
         <v>9</v>
@@ -8864,12 +8786,12 @@
         <v>10</v>
       </c>
       <c r="D539" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B540" t="s">
         <v>9</v>
@@ -8878,12 +8800,12 @@
         <v>12</v>
       </c>
       <c r="D540" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B541" t="s">
         <v>9</v>
@@ -8894,7 +8816,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B542" t="s">
         <v>9</v>
@@ -8905,7 +8827,7 @@
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B543" t="s">
         <v>9</v>
@@ -8916,7 +8838,7 @@
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B544" t="s">
         <v>9</v>
@@ -8927,7 +8849,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B545" t="s">
         <v>9</v>
@@ -8938,7 +8860,7 @@
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B546" t="s">
         <v>9</v>
@@ -8949,7 +8871,7 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B547" t="s">
         <v>9</v>
@@ -8960,7 +8882,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B548" t="s">
         <v>9</v>
@@ -8971,7 +8893,7 @@
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B549" t="s">
         <v>9</v>
@@ -8980,12 +8902,12 @@
         <v>16</v>
       </c>
       <c r="D549" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B550" t="s">
         <v>9</v>
@@ -8994,12 +8916,12 @@
         <v>16</v>
       </c>
       <c r="D550" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B551" t="s">
         <v>9</v>
@@ -9010,7 +8932,7 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B552" t="s">
         <v>9</v>
@@ -9021,7 +8943,7 @@
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B553" t="s">
         <v>9</v>
@@ -9030,12 +8952,12 @@
         <v>16</v>
       </c>
       <c r="D553" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B554" t="s">
         <v>9</v>
@@ -9044,12 +8966,12 @@
         <v>18</v>
       </c>
       <c r="D554" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B555" t="s">
         <v>9</v>
@@ -9060,7 +8982,7 @@
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B556" t="s">
         <v>9</v>
@@ -9071,7 +8993,7 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B557" t="s">
         <v>9</v>
@@ -9080,12 +9002,12 @@
         <v>20</v>
       </c>
       <c r="D557" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B558" t="s">
         <v>9</v>
@@ -9094,12 +9016,12 @@
         <v>20</v>
       </c>
       <c r="D558" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B559" t="s">
         <v>9</v>
@@ -9108,12 +9030,12 @@
         <v>20</v>
       </c>
       <c r="D559" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B561" t="s">
         <v>10</v>
@@ -9124,7 +9046,7 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B562" t="s">
         <v>10</v>
@@ -9135,7 +9057,7 @@
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B563" t="s">
         <v>10</v>
@@ -9146,7 +9068,7 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B564" t="s">
         <v>10</v>
@@ -9157,7 +9079,7 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B565" t="s">
         <v>10</v>
@@ -9168,7 +9090,7 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B566" t="s">
         <v>10</v>
@@ -9179,7 +9101,7 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B567" t="s">
         <v>10</v>
@@ -9190,7 +9112,7 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B568" t="s">
         <v>10</v>
@@ -9201,7 +9123,7 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B569" t="s">
         <v>10</v>
@@ -9212,7 +9134,7 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B570" t="s">
         <v>10</v>
@@ -9223,7 +9145,7 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B571" t="s">
         <v>10</v>
@@ -9234,7 +9156,7 @@
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B572" t="s">
         <v>10</v>
@@ -9245,7 +9167,7 @@
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B573" t="s">
         <v>10</v>
@@ -9267,7 +9189,7 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B575" t="s">
         <v>10</v>
@@ -9289,7 +9211,7 @@
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B577" t="s">
         <v>10</v>
@@ -9298,12 +9220,12 @@
         <v>2</v>
       </c>
       <c r="D577" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B578" t="s">
         <v>10</v>
@@ -9312,12 +9234,12 @@
         <v>4</v>
       </c>
       <c r="D578" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B579" t="s">
         <v>10</v>
@@ -9328,7 +9250,7 @@
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B580" t="s">
         <v>10</v>
@@ -9337,12 +9259,12 @@
         <v>4</v>
       </c>
       <c r="D580" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B581" t="s">
         <v>10</v>
@@ -9351,12 +9273,12 @@
         <v>4</v>
       </c>
       <c r="D581" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B582" t="s">
         <v>10</v>
@@ -9365,12 +9287,12 @@
         <v>4</v>
       </c>
       <c r="D582" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B583" t="s">
         <v>10</v>
@@ -9379,7 +9301,7 @@
         <v>6</v>
       </c>
       <c r="D583" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
@@ -9395,7 +9317,7 @@
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B585" t="s">
         <v>10</v>
@@ -9406,7 +9328,7 @@
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B586" t="s">
         <v>10</v>
@@ -9417,7 +9339,7 @@
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B587" t="s">
         <v>10</v>
@@ -9426,12 +9348,12 @@
         <v>10</v>
       </c>
       <c r="D587" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B588" t="s">
         <v>10</v>
@@ -9453,7 +9375,7 @@
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B590" t="s">
         <v>10</v>
@@ -9462,12 +9384,12 @@
         <v>12</v>
       </c>
       <c r="D590" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B591" t="s">
         <v>10</v>
@@ -9478,7 +9400,7 @@
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B592" t="s">
         <v>10</v>
@@ -9487,12 +9409,12 @@
         <v>14</v>
       </c>
       <c r="D592" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B593" t="s">
         <v>10</v>
@@ -9501,7 +9423,7 @@
         <v>14</v>
       </c>
       <c r="D593" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
@@ -9517,7 +9439,7 @@
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B595" t="s">
         <v>10</v>
@@ -9526,12 +9448,12 @@
         <v>16</v>
       </c>
       <c r="D595" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B596" t="s">
         <v>10</v>
@@ -9540,12 +9462,12 @@
         <v>16</v>
       </c>
       <c r="D596" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B597" t="s">
         <v>10</v>
@@ -9554,12 +9476,12 @@
         <v>18</v>
       </c>
       <c r="D597" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B598" t="s">
         <v>10</v>
@@ -9568,12 +9490,12 @@
         <v>18</v>
       </c>
       <c r="D598" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B599" t="s">
         <v>10</v>
@@ -9584,7 +9506,7 @@
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B600" t="s">
         <v>10</v>
@@ -9593,12 +9515,12 @@
         <v>20</v>
       </c>
       <c r="D600" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B601" t="s">
         <v>10</v>
@@ -9609,40 +9531,40 @@
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B603" t="s">
         <v>11</v>
       </c>
       <c r="C603" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B604" t="s">
         <v>11</v>
       </c>
       <c r="C604" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B605" t="s">
         <v>11</v>
       </c>
       <c r="C605" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B607" t="s">
         <v>11</v>
@@ -9653,7 +9575,7 @@
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B608" t="s">
         <v>11</v>
@@ -9664,7 +9586,7 @@
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B609" t="s">
         <v>11</v>
@@ -9675,7 +9597,7 @@
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B610" t="s">
         <v>11</v>
@@ -9684,7 +9606,7 @@
         <v>1</v>
       </c>
       <c r="D610" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
@@ -9700,7 +9622,7 @@
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B612" t="s">
         <v>11</v>
@@ -9722,7 +9644,7 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B614" t="s">
         <v>11</v>
@@ -9733,7 +9655,7 @@
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B615" t="s">
         <v>11</v>
@@ -9742,12 +9664,12 @@
         <v>2</v>
       </c>
       <c r="D615" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B616" t="s">
         <v>11</v>
@@ -9758,7 +9680,7 @@
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B617" t="s">
         <v>11</v>
@@ -9767,12 +9689,12 @@
         <v>4</v>
       </c>
       <c r="D617" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B618" t="s">
         <v>11</v>
@@ -9781,12 +9703,12 @@
         <v>4</v>
       </c>
       <c r="D618" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B619" t="s">
         <v>11</v>
@@ -9808,7 +9730,7 @@
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B621" t="s">
         <v>11</v>
@@ -9817,12 +9739,12 @@
         <v>8</v>
       </c>
       <c r="D621" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B622" t="s">
         <v>11</v>
@@ -9831,12 +9753,12 @@
         <v>8</v>
       </c>
       <c r="D622" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B623" t="s">
         <v>11</v>
@@ -9845,12 +9767,12 @@
         <v>8</v>
       </c>
       <c r="D623" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B624" t="s">
         <v>11</v>
@@ -9872,7 +9794,7 @@
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B626" t="s">
         <v>11</v>
@@ -9881,12 +9803,12 @@
         <v>10</v>
       </c>
       <c r="D626" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B627" t="s">
         <v>11</v>
@@ -9895,12 +9817,12 @@
         <v>12</v>
       </c>
       <c r="D627" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B628" t="s">
         <v>11</v>
@@ -9911,7 +9833,7 @@
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B629" t="s">
         <v>11</v>
@@ -9920,12 +9842,12 @@
         <v>14</v>
       </c>
       <c r="D629" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B630" t="s">
         <v>11</v>
@@ -9934,12 +9856,12 @@
         <v>14</v>
       </c>
       <c r="D630" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B631" t="s">
         <v>11</v>
@@ -9948,7 +9870,7 @@
         <v>14</v>
       </c>
       <c r="D631" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
@@ -9964,7 +9886,7 @@
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B633" t="s">
         <v>11</v>
@@ -9975,7 +9897,7 @@
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B634" t="s">
         <v>11</v>
@@ -9986,7 +9908,7 @@
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B635" t="s">
         <v>11</v>
@@ -9997,7 +9919,7 @@
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B636" t="s">
         <v>11</v>
@@ -10006,12 +9928,12 @@
         <v>20</v>
       </c>
       <c r="D636" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B637" t="s">
         <v>11</v>
@@ -10022,7 +9944,7 @@
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B638" t="s">
         <v>11</v>
